--- a/Livrables/Planning provisoire.xlsx
+++ b/Livrables/Planning provisoire.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Learn\TI1294\Cassiopee\Cassiopee\Livrables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA76ED6A-1871-43DF-8507-CF739D914C72}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,15 +176,18 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,11 +210,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,17 +541,17 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:C25"/>
+      <selection activeCell="B6" sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" customWidth="1"/>
-    <col min="3" max="3" width="41.7265625" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -580,7 +593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -591,7 +604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -622,7 +635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -633,7 +646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -644,7 +657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -655,7 +668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -666,15 +679,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -685,7 +699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -725,11 +739,14 @@
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -749,7 +766,7 @@
       <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -760,11 +777,11 @@
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -782,7 +799,7 @@
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -793,7 +810,7 @@
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>42</v>
       </c>
     </row>
